--- a/tests/nrt3/input_nrt3.xlsx
+++ b/tests/nrt3/input_nrt3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VS5997\src\neonat\tests\nrt3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2936217B-F4B7-462F-8C73-FCF3F810AC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC159CDC-9581-4E03-99B4-5AFB41F42C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="13800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="7764" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="babies" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="38">
   <si>
     <t>services</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>bb10</t>
+  </si>
+  <si>
+    <t>priority</t>
   </si>
 </sst>
 </file>
@@ -613,10 +616,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE173FA1-E983-499D-AB64-6CD8215CA3C5}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,7 +633,7 @@
     <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -652,8 +655,11 @@
       <c r="G1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -673,7 +679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -693,7 +699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -713,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -733,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -753,7 +759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -773,7 +779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -793,7 +799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -807,7 +813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -821,7 +827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -835,7 +841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>

--- a/tests/nrt3/input_nrt3.xlsx
+++ b/tests/nrt3/input_nrt3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VS5997\src\neonat\tests\nrt3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC159CDC-9581-4E03-99B4-5AFB41F42C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC83D3F-BEE9-4C24-B24F-5558B2473F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="7764" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="babies" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="39">
   <si>
     <t>services</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>priority</t>
+  </si>
+  <si>
+    <t>treatment</t>
   </si>
 </sst>
 </file>
@@ -471,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFF5F45-CFAD-4E61-9970-5F5BE534E7C0}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,7 +490,7 @@
     <col min="6" max="6" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -497,8 +500,11 @@
       <c r="C1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -509,7 +515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -520,7 +526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -531,7 +537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -542,7 +548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -553,7 +559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -564,7 +570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -575,7 +581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -586,7 +592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -597,7 +603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -616,10 +622,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE173FA1-E983-499D-AB64-6CD8215CA3C5}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="103" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,7 +639,7 @@
     <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -658,8 +664,11 @@
       <c r="H1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -679,7 +688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -699,7 +708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -719,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -739,7 +748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -759,7 +768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -779,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -799,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -813,7 +822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -827,7 +836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -841,7 +850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>

--- a/tests/nrt3/input_nrt3.xlsx
+++ b/tests/nrt3/input_nrt3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VS5997\src\neonat\tests\nrt3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC83D3F-BEE9-4C24-B24F-5558B2473F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4080C4B-D0AB-435C-9588-7B0EA40A6949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,9 +89,6 @@
     <t>babies</t>
   </si>
   <si>
-    <t>babies_potential</t>
-  </si>
-  <si>
     <t>old_alloc_list</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>treatment</t>
+  </si>
+  <si>
+    <t>babies_service</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,18 +495,18 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -583,10 +583,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -594,10 +594,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -605,10 +605,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -641,7 +641,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -650,22 +650,22 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -858,10 +858,10 @@
         <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -905,7 +905,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/tests/nrt3/input_nrt3.xlsx
+++ b/tests/nrt3/input_nrt3.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VS5997\src\neonat\tests\nrt3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4080C4B-D0AB-435C-9588-7B0EA40A6949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A90B599-FEF0-4716-AF06-CE4ACA60E1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="babies" sheetId="2" r:id="rId1"/>
-    <sheet name="rooms" sheetId="3" r:id="rId2"/>
+    <sheet name="beds" sheetId="3" r:id="rId2"/>
     <sheet name="services" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -62,15 +62,9 @@
     <t>r7</t>
   </si>
   <si>
-    <t>new_rooms_service</t>
-  </si>
-  <si>
     <t>out</t>
   </si>
   <si>
-    <t>old_rooms</t>
-  </si>
-  <si>
     <t>r8</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>r10</t>
   </si>
   <si>
-    <t>new_rooms</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -95,18 +86,9 @@
     <t>going_out</t>
   </si>
   <si>
-    <t>old_rooms_service</t>
-  </si>
-  <si>
     <t>leave_hospital</t>
   </si>
   <si>
-    <t>rooms_capacities</t>
-  </si>
-  <si>
-    <t>all_rooms</t>
-  </si>
-  <si>
     <t>bb1</t>
   </si>
   <si>
@@ -144,6 +126,24 @@
   </si>
   <si>
     <t>babies_service</t>
+  </si>
+  <si>
+    <t>all_beds</t>
+  </si>
+  <si>
+    <t>new_beds</t>
+  </si>
+  <si>
+    <t>old_beds</t>
+  </si>
+  <si>
+    <t>new_beds_service</t>
+  </si>
+  <si>
+    <t>old_beds_service</t>
+  </si>
+  <si>
+    <t>beds_capacities</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFF5F45-CFAD-4E61-9970-5F5BE534E7C0}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+    <sheetView zoomScale="102" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -492,21 +492,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -583,35 +583,35 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -624,7 +624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE173FA1-E983-499D-AB64-6CD8215CA3C5}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="103" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -641,31 +641,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -673,10 +673,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -693,10 +693,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -713,10 +713,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -753,10 +753,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
@@ -773,10 +773,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
@@ -793,10 +793,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
@@ -810,10 +810,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>
@@ -824,10 +824,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
         <v>3</v>
@@ -838,10 +838,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
         <v>3</v>
@@ -852,16 +852,16 @@
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -905,7 +905,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
